--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Beach.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Beach.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E66F16D-D60A-4593-B58F-CE0773447D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAA19D0-794C-4F57-9B68-4A75300332C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
-    <sheet name="1-3 main" sheetId="31" r:id="rId2"/>
-    <sheet name="1-3, 1" sheetId="44" r:id="rId3"/>
-    <sheet name="1-3, 2" sheetId="45" r:id="rId4"/>
-    <sheet name="1-3, 3" sheetId="47" r:id="rId5"/>
+    <sheet name="1-3 main-0" sheetId="31" r:id="rId2"/>
+    <sheet name="1-3 main-1" sheetId="48" r:id="rId3"/>
+    <sheet name="1-3, 1" sheetId="44" r:id="rId4"/>
+    <sheet name="1-3, 2" sheetId="45" r:id="rId5"/>
+    <sheet name="1-3, 3" sheetId="47" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1298,7 +1299,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{49C589C4-0FE3-4E24-B965-2E7D8F68FDC8}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{3B1F4C3B-050E-4B7C-BE81-BD00CD3F19DC}">
       <text>
         <r>
           <rPr>
@@ -1503,7 +1504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{9C5BDFE4-61A5-4314-A1BA-1610439C930F}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{0E6AA2F9-CCBB-4568-A695-A8D8C7BDE3E0}">
       <text>
         <r>
           <rPr>
@@ -1526,7 +1527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{3F6817A1-2E5B-4E24-B73C-405EDFCB1295}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{0DF6FD7E-18F2-4413-98E2-8F8F5E81D42B}">
       <text>
         <r>
           <rPr>
@@ -1639,7 +1640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{24F93AF2-423C-4D9F-B059-8C59D240EFD6}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{BA40F742-90FB-4910-8891-4A923C7766CE}">
       <text>
         <r>
           <rPr>
@@ -1925,7 +1926,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{025ED066-92A4-4D81-858A-670DB228D0FE}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{49C589C4-0FE3-4E24-B965-2E7D8F68FDC8}">
       <text>
         <r>
           <rPr>
@@ -2130,7 +2131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{73166A99-2376-492D-ADF6-23C3D6ECBEC5}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{9C5BDFE4-61A5-4314-A1BA-1610439C930F}">
       <text>
         <r>
           <rPr>
@@ -2153,7 +2154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{1B3CEDB1-42E0-46B7-9CBA-4051370D28CF}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{3F6817A1-2E5B-4E24-B73C-405EDFCB1295}">
       <text>
         <r>
           <rPr>
@@ -2266,7 +2267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{5F84B2BF-3822-4E6D-B090-6FBE91E6EDB7}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{24F93AF2-423C-4D9F-B059-8C59D240EFD6}">
       <text>
         <r>
           <rPr>
@@ -2552,7 +2553,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{75FF830D-8352-449F-AF90-0B002B35FD29}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{025ED066-92A4-4D81-858A-670DB228D0FE}">
       <text>
         <r>
           <rPr>
@@ -2757,7 +2758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{255A2A47-7BF9-41A4-BABC-8FE70BAF47E9}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{73166A99-2376-492D-ADF6-23C3D6ECBEC5}">
       <text>
         <r>
           <rPr>
@@ -2780,7 +2781,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{794B8B3D-369A-4897-ADDA-0298E5A059BC}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{1B3CEDB1-42E0-46B7-9CBA-4051370D28CF}">
       <text>
         <r>
           <rPr>
@@ -2893,7 +2894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{E81849FF-9FF4-424E-8492-6007DB65722A}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{5F84B2BF-3822-4E6D-B090-6FBE91E6EDB7}">
       <text>
         <r>
           <rPr>
@@ -3172,8 +3173,635 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>UISU</author>
+    <author>서 의수</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{75FF830D-8352-449F-AF90-0B002B35FD29}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0: NONE
+1: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">대화
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (1, 2, 3)
+3: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">종료
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맵</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동할</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Scene </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - contents)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+5: Save
+9: Random
+10: Random End
+11: Immediately Execute
+// Inspector창에서 직접 조정
+6: CutScene
+7: WaitInteract
+8: Interact</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{255A2A47-7BF9-41A4-BABC-8FE70BAF47E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{794B8B3D-369A-4897-ADDA-0298E5A059BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Default = -1
+Keep = 0 (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이전</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>), (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기본</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+Action1 = 1
+…
+Option</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Left or Right </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{E81849FF-9FF4-424E-8492-6007DB65722A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> 사용하고 있는 구분자
+:, ()</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">- </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수거</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모든</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타입에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>. 단, 일부 (Random 혹은 Choice 관련 안됨.))
+v0 : v1 (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>여러개</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> - ex) Bag:Add, Cap:Add)
+v0 - Item name
+v1 - Add, Remove</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+- 1 (Script)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">0: 스킵 불가능
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>1(value) : {$value}배속
+- 캐릭터 등장 (Script, ImmediatelyExecute에서 가능)
+v0, v1 (순서 무관)
+v0 - Left, Right
+v1 - Appear, Active, Inactive, Disappear
+- 컷씬
+v0, v1, v2, v3 (순서 무관)
+v0 - Hold, None (Default - None)   (대소문자 무관)
+v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
+v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
+v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="84">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3301,10 +3929,6 @@
   </si>
   <si>
     <t>멍!</t>
-  </si>
-  <si>
-    <t>1-3 main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>···사람들이 흔히 생각하는 해변가는 아니지만, ···나름 운치 있지?</t>
@@ -3416,22 +4040,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hold, -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold, 1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reset, -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3465,6 +4073,38 @@
   </si>
   <si>
     <t>사진사가 필드 캐릭터가 카메라&gt; 스탠딩으로 변경된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3 main-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3 main-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1, name=Stage 1/카메라 셔터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, -1, name=Stage 1/3 Beach/Standing to Camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, -1, name=Stage 1/3 Beach/Standing to Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 3, name=Stage 1/3 Beach/#1 새 부둣가 등대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Stage 1/3 Beach/#2 카메라 진동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FadeOut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4028,10 +4668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E6DD22-0A94-4479-9EBE-74026E463339}">
-  <dimension ref="A1:P104"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B25:F26"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -4045,7 +4685,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -4114,7 +4754,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -4124,7 +4764,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4132,7 +4772,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -4146,7 +4786,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -4156,7 +4796,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -4164,7 +4804,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -4174,7 +4814,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4182,7 +4822,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -4198,7 +4838,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -4226,7 +4866,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -4236,7 +4876,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -4244,7 +4884,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -4254,7 +4894,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -4262,7 +4902,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -4282,13 +4922,13 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="33">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="5">
         <v>7</v>
@@ -4302,7 +4942,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -4312,7 +4952,7 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4324,13 +4964,13 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="5">
         <v>7</v>
@@ -4339,534 +4979,101 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="7">
-        <v>6</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>4</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="7">
-        <v>6</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7">
-        <v>-1</v>
-      </c>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="7">
-        <v>6</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7">
-        <v>-1</v>
-      </c>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7">
-        <v>11</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="7">
-        <v>6</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7">
-        <v>4</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7">
-        <v>6</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7">
-        <v>11</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="7">
-        <v>6</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7">
-        <v>4</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="7">
-        <v>11</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="7">
-        <v>6</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="7"/>
-      <c r="B34" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="7">
-        <v>6</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7">
-        <v>6</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="7">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7">
-        <v>4</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="7">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7">
-        <v>6</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="7">
-        <v>4</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="7">
-        <v>2</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="7">
-        <v>1</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="7">
-        <v>2</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="7">
-        <v>1</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="7">
-        <v>3</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="7">
-        <v>1</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="7">
-        <v>1</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="7">
-        <v>1</v>
-      </c>
-      <c r="D46" s="7">
-        <v>6</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7">
-        <v>11</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="7">
-        <v>7</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="7">
-        <v>4</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="47" spans="2:2" s="2" customFormat="1">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="2:2" s="2" customFormat="1">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:2">
       <c r="B50" s="2"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="51" spans="2:2">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="2:2">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="2:2">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="2:2">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="2:2">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="2:2">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="2:2">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="2:2">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="2:2">
       <c r="B60" s="2"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="61" spans="2:2">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="2:2">
       <c r="B63" s="2"/>
     </row>
-    <row r="78" spans="2:2" s="2" customFormat="1">
-      <c r="B78"/>
-    </row>
-    <row r="79" spans="2:2" s="2" customFormat="1">
-      <c r="B79"/>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="2"/>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="2"/>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="2"/>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="2"/>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="2"/>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="2"/>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="2"/>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="2"/>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="2"/>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="2"/>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="2"/>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="2"/>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4876,6 +5083,504 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C200D7-C0B4-4460-8B8F-6B50F370EC7E}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="B17:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="51.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="7">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="33">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="7">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7"/>
+      <c r="B17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>6</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>4</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>6</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7">
+        <v>11</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="7">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="7">
+        <v>11</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="7">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE87A1-AC1D-424F-8DF9-47E56AC24E4E}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -4894,7 +5599,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4962,7 +5667,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4971,7 +5676,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4979,7 +5684,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4988,7 +5693,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4996,7 +5701,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5010,7 +5715,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5021,7 +5726,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -5031,7 +5736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B375DD-222F-47E2-85A7-A6BD2A333584}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -5050,7 +5755,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5123,7 +5828,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5132,7 +5837,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5140,7 +5845,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5149,7 +5854,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5157,7 +5862,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5171,7 +5876,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5185,7 +5890,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5199,7 +5904,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -5210,7 +5915,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -5221,7 +5926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8167BB-AE86-4B15-9046-8B0DCA91C2DF}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -5240,7 +5945,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5313,7 +6018,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5322,7 +6027,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5330,7 +6035,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5341,7 +6046,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Beach.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Beach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAA19D0-794C-4F57-9B68-4A75300332C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA7F581-904F-461E-871B-756349F9EC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
@@ -3870,13 +3870,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사진사</t>
-  </si>
-  <si>
-    <t>사진사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파일명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3885,16 +3878,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아들</t>
-  </si>
-  <si>
     <t>(컷 씬)&gt; (스테이지 필드)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아내</t>
-  </si>
-  <si>
     <t>조금만…. 조금만 더 기다려줘. …아직 일이 남아 있어. 이것도 가족을 위한 일이니….</t>
   </si>
   <si>
@@ -3913,19 +3900,10 @@
     <t>헥헥!</t>
   </si>
   <si>
-    <t>(강아지의 머리를 쓰다듬는다.)</t>
-  </si>
-  <si>
     <t>&lt;시스템&gt;</t>
   </si>
   <si>
     <t>열쇠 &lt;b&gt;&lt;감내&gt;&lt;/b&gt;을 획득하였다.</t>
-  </si>
-  <si>
-    <t>(강아지를 발로 찬다.)</t>
-  </si>
-  <si>
-    <t>열쇠 &lt;b&gt;&lt;극단&gt;&lt;/b&gt;을 획득하였다.</t>
   </si>
   <si>
     <t>멍!</t>
@@ -3958,9 +3936,6 @@
     <t>(방파제가 높이 쌓여 있다.)</t>
   </si>
   <si>
-    <t>(사진사 이름)! 위험해 보이니까 그 너머는 안 가는 것이 좋겠어.</t>
-  </si>
-  <si>
     <t>···알겠어.</t>
   </si>
   <si>
@@ -3992,9 +3967,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>··· (사진사 이름). 이만 돌아가는 편이 좋을지도 모르겠어. 느낌이 이상해.</t>
-  </si>
-  <si>
     <t>아빠···.</t>
   </si>
   <si>
@@ -4015,10 +3987,6 @@
   </si>
   <si>
     <t>···사진이···.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>···그래, (강아지 이름). 내가 너를 심심하게 했구나. 가자. 가족들과 함께 놀자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4105,6 +4073,46 @@
   </si>
   <si>
     <t>FadeOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···그래, 쿠키. 내가 너를 심심하게 했구나. 가자. 가족들과 함께 놀자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>··· 아이작. 이만 돌아가는 편이 좋을지도 모르겠어. 느낌이 이상해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이작! 위험해 보이니까 그 너머는 안 가는 것이 좋겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(발로 찬다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(머리를 쓰다듬는다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4596,7 +4604,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4671,7 +4679,7 @@
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -4685,7 +4693,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -4751,10 +4759,10 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -4764,15 +4772,15 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -4783,10 +4791,10 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -4796,15 +4804,15 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -4814,15 +4822,15 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -4835,10 +4843,10 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -4849,10 +4857,10 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -4863,10 +4871,10 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -4876,15 +4884,15 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -4894,15 +4902,15 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -4922,13 +4930,13 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="33">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C16" s="5">
         <v>7</v>
@@ -4939,10 +4947,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -4952,7 +4960,7 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4964,13 +4972,13 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5">
         <v>7</v>
@@ -5086,8 +5094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C200D7-C0B4-4460-8B8F-6B50F370EC7E}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="B17:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5102,7 +5110,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5168,7 +5176,7 @@
     <row r="5" spans="1:6">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" s="7">
         <v>6</v>
@@ -5176,15 +5184,15 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -5194,13 +5202,13 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="9"/>
       <c r="B7" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -5208,15 +5216,15 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -5228,7 +5236,7 @@
     <row r="9" spans="1:6">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7">
         <v>6</v>
@@ -5236,7 +5244,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5248,13 +5256,13 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C11" s="7">
         <v>6</v>
@@ -5262,15 +5270,15 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -5281,10 +5289,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -5296,7 +5304,7 @@
     <row r="14" spans="1:6" ht="33">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C14" s="7">
         <v>6</v>
@@ -5304,15 +5312,15 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -5324,7 +5332,7 @@
     <row r="16" spans="1:6">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C16" s="7">
         <v>6</v>
@@ -5332,13 +5340,13 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7"/>
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>6</v>
@@ -5346,15 +5354,15 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
@@ -5364,15 +5372,15 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -5382,15 +5390,15 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -5403,10 +5411,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -5420,7 +5428,7 @@
     <row r="22" spans="1:6">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
@@ -5431,10 +5439,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -5446,7 +5454,7 @@
     <row r="24" spans="1:6">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C24" s="7">
         <v>2</v>
@@ -5457,10 +5465,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -5481,10 +5489,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -5495,10 +5503,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
@@ -5509,10 +5517,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -5532,13 +5540,13 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C31" s="7">
         <v>7</v>
@@ -5550,7 +5558,7 @@
     <row r="32" spans="1:6">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C32" s="7">
         <v>11</v>
@@ -5558,13 +5566,13 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="7"/>
       <c r="B33" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7">
         <v>4</v>
@@ -5585,7 +5593,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5599,7 +5607,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5664,10 +5672,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5676,15 +5684,15 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5693,15 +5701,15 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5712,10 +5720,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5726,7 +5734,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5741,7 +5749,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5755,7 +5763,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5825,10 +5833,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5837,15 +5845,15 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5854,15 +5862,15 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5873,10 +5881,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5887,10 +5895,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5901,10 +5909,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -5915,7 +5923,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5931,7 +5939,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5945,7 +5953,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6015,10 +6023,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -6027,15 +6035,15 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -6046,7 +6054,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Beach.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Beach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA7F581-904F-461E-871B-756349F9EC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D963723-2325-4D39-B965-D81DDA74EB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
@@ -5092,10 +5092,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C200D7-C0B4-4460-8B8F-6B50F370EC7E}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5571,15 +5571,25 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="7"/>
-      <c r="B33" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="B33" s="7"/>
       <c r="C33" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="7">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Beach.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Beach.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D963723-2325-4D39-B965-D81DDA74EB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2F23CB-0C98-4ECA-A5EF-6CBA7F4F55FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
@@ -3801,7 +3801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="86">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4104,15 +4104,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(발로 찬다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(머리를 쓰다듬는다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠 &lt;b&gt;&lt;극단&gt;&lt;/b&gt;을 획득하였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0,2,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5094,8 +5102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C200D7-C0B4-4460-8B8F-6B50F370EC7E}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5428,7 +5436,7 @@
     <row r="22" spans="1:6">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
@@ -5449,12 +5457,14 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="7">
         <v>2</v>
@@ -5468,14 +5478,16 @@
         <v>26</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="7"/>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Beach.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Beach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2F23CB-0C98-4ECA-A5EF-6CBA7F4F55FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE635A1-6DAB-44E9-A219-BD6A9E686540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
@@ -5102,8 +5102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C200D7-C0B4-4460-8B8F-6B50F370EC7E}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5443,7 +5443,9 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="7" t="s">
@@ -5457,9 +5459,7 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
-        <v>84</v>
-      </c>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="7"/>
@@ -5471,7 +5471,9 @@
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="7" t="s">
@@ -5485,9 +5487,7 @@
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="7"/>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Beach.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Beach.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B9BB5D-75F2-44FF-8E83-815B3018BBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="!Sample" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="1-3 main-0" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="1-3 main-1" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="1-3, 1" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="1-3, 2" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="1-3, 3" sheetId="6" r:id="rId9"/>
+    <sheet name="!Sample" sheetId="1" r:id="rId1"/>
+    <sheet name="1-3 main-0" sheetId="2" r:id="rId2"/>
+    <sheet name="1-3 main-1" sheetId="3" r:id="rId3"/>
+    <sheet name="1-3, 1" sheetId="4" r:id="rId4"/>
+    <sheet name="1-3, 2" sheetId="5" r:id="rId5"/>
+    <sheet name="1-3, 3" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="z+DT7o7porseD4XXZZXxVcYexPRtbcPrOX3Ci11Z6AE="/>
@@ -21,14 +30,74 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYERbRk
+UISU    (2023-06-16 00:11:14)
+0: NONE
+1: 대화
+2: 선택지 (1, 2, 3)
+3: 선택지 종료
+4: 맵 이동 (이동할 Scene 이름 - contents)
+5: Save
+9: Random
+10: Random End
+11: Immediately Execute
+// Inspector창에서 직접 조정
+6: CutScene
+7: WaitInteract
+8: Interact</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYERbRc
+UISU    (2023-06-16 00:11:14)
+Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYERbSU
 UISU    (2023-06-16 00:11:14)
 Default = -1
@@ -36,11 +105,19 @@
 Action1 = 1
 …
 Option에서 Left or Right 필수</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYERbSA
 서 의수    (2023-06-16 00:11:14)
 이미 사용하고 있는 구분자
@@ -62,12 +139,35 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - true)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C4">
+  </commentList>
+  <extLst>
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjK335ix46titMzMPgIl0zgeEef9Q=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYERbRk
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYERbRg
 UISU    (2023-06-16 00:11:14)
 0: NONE
 1: 대화
@@ -82,43 +182,19 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYERbRc
-UISU    (2023-06-16 00:11:14)
-Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
-      </text>
-    </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjK335ix46titMzMPgIl0zgeEef9Q=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYERbSs
 UISU    (2023-06-16 00:11:14)
 Dubby = -1,
@@ -131,11 +207,39 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYERbSY
+UISU    (2023-06-16 00:11:14)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYERbSk
 서 의수    (2023-06-16 00:11:14)
 이미 사용하고 있는 구분자
@@ -157,24 +261,35 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E4">
+  </commentList>
+  <extLst>
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgJDK4yi5U9B8/yWEBOphYrXagDfQ=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYERbSY
-UISU    (2023-06-16 00:11:14)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYERbRg
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYERbSc
 UISU    (2023-06-16 00:11:14)
 0: NONE
 1: 대화
@@ -189,26 +304,64 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgJDK4yi5U9B8/yWEBOphYrXagDfQ=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="F4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYERbRY
+UISU    (2023-06-16 00:11:14)
+Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYERbR0
+UISU    (2023-06-16 00:11:14)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYERbSg
 서 의수    (2023-06-16 00:11:14)
 이미 사용하고 있는 구분자
@@ -230,12 +383,35 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C4">
+  </commentList>
+  <extLst>
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mg9x9zo1dI2zhea+x/YhgCiYCYGtw=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYERbSc
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYERbSQ
 UISU    (2023-06-16 00:11:14)
 0: NONE
 1: 대화
@@ -250,24 +426,20 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYERbR0
-UISU    (2023-06-16 00:11:14)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYERbRY
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYERbSM
 UISU    (2023-06-16 00:11:14)
 Dubby = -1,
     Keep = 0,
@@ -279,26 +451,19 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mg9x9zo1dI2zhea+x/YhgCiYCYGtw=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="E4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYERbS0
 UISU    (2023-06-16 00:11:14)
 Default = -1
@@ -306,11 +471,19 @@
 Action1 = 1
 …
 Option에서 Left or Right 필수</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYERbSw
 서 의수    (2023-06-16 00:11:14)
 이미 사용하고 있는 구분자
@@ -332,12 +505,35 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C4">
+  </commentList>
+  <extLst>
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miS7bgLk+Wj2R3Tr0V8rO7GVbQoCg=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYERbSQ
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYERbRw
 UISU    (2023-06-16 00:11:14)
 0: NONE
 1: 대화
@@ -352,12 +548,20 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYERbSM
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYERbR4
 UISU    (2023-06-16 00:11:14)
 Dubby = -1,
     Keep = 0,
@@ -369,26 +573,19 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miS7bgLk+Wj2R3Tr0V8rO7GVbQoCg=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="E4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYERbSo
 UISU    (2023-06-16 00:11:14)
 Default = -1
@@ -396,11 +593,19 @@
 Action1 = 1
 …
 Option에서 Left or Right 필수</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYERbSI
 서 의수    (2023-06-16 00:11:14)
 이미 사용하고 있는 구분자
@@ -422,48 +627,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYERbR4
-UISU    (2023-06-16 00:11:14)
-Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYERbRw
-UISU    (2023-06-16 00:11:14)
-0: NONE
-1: 대화
-2: 선택지 (1, 2, 3)
-3: 선택지 종료
-4: 맵 이동 (이동할 Scene 이름 - contents)
-5: Save
-9: Random
-10: Random End
-11: Immediately Execute
-// Inspector창에서 직접 조정
-6: CutScene
-7: WaitInteract
-8: Interact</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mj7dVX2vI5HqNPSBDYbuJcE0aPrxA=="/>
     </ext>
   </extLst>
@@ -471,14 +640,21 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYERbSE
 UISU    (2023-06-16 00:11:14)
 0: NONE
@@ -494,11 +670,64 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYERbRo
+UISU    (2023-06-16 00:11:14)
+Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYERbRs
+UISU    (2023-06-16 00:11:14)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYERbR8
 서 의수    (2023-06-16 00:11:14)
 이미 사용하고 있는 구분자
@@ -520,40 +749,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYERbRs
-UISU    (2023-06-16 00:11:14)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYERbRo
-UISU    (2023-06-16 00:11:14)
-Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhYtCu5D0iitr1q5hlRkR58d3RMfw=="/>
     </ext>
   </extLst>
@@ -748,9 +949,6 @@
     <t>(머리를 쓰다듬는다.)</t>
   </si>
   <si>
-    <t>2,0,1,0</t>
-  </si>
-  <si>
     <t>&lt;시스템&gt;</t>
   </si>
   <si>
@@ -758,9 +956,6 @@
   </si>
   <si>
     <t>(발로 찬다.)</t>
-  </si>
-  <si>
-    <t>2,0,2,0</t>
   </si>
   <si>
     <t>열쇠 &lt;b&gt;&lt;극단&gt;&lt;/b&gt;을 획득하였다.</t>
@@ -819,32 +1014,52 @@
   <si>
     <t>···운행하고 있는 건가?</t>
   </si>
+  <si>
+    <t>Tendency-감내</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tendency-극단</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="A고딕12"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -852,7 +1067,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -874,7 +1089,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -888,85 +1109,65 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1156,29 +1357,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.86"/>
+    <col min="1" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1198,7 +1401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1238,18 +1441,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1"/>
-    <row r="6" ht="16.5" customHeight="1"/>
-    <row r="7" ht="16.5" customHeight="1"/>
-    <row r="8" ht="16.5" customHeight="1"/>
-    <row r="9" ht="16.5" customHeight="1"/>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -2235,39 +2438,36 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.86"/>
-    <col customWidth="1" min="2" max="2" width="89.0"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="26" width="8.86"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="89" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:16" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:16" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2287,7 +2487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:16" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2307,7 +2507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:16" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2327,7 +2527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:16" ht="16.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -2335,17 +2535,17 @@
         <v>20</v>
       </c>
       <c r="C5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:16" ht="16.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -2353,31 +2553,31 @@
         <v>22</v>
       </c>
       <c r="C6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:16" ht="16.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
+    <row r="8" spans="1:16" ht="16.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -2385,17 +2585,17 @@
         <v>27</v>
       </c>
       <c r="C8" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
+    <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -2403,15 +2603,15 @@
         <v>29</v>
       </c>
       <c r="C9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
+    <row r="10" spans="1:16" ht="16.5" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -2419,27 +2619,27 @@
         <v>30</v>
       </c>
       <c r="C10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
+    <row r="11" spans="1:16" ht="16.5" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" ht="16.5" customHeight="1">
+    <row r="12" spans="1:16" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -2447,17 +2647,17 @@
         <v>32</v>
       </c>
       <c r="C12" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" ht="16.5" customHeight="1">
+    <row r="13" spans="1:16" ht="16.5" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -2465,17 +2665,17 @@
         <v>32</v>
       </c>
       <c r="C13" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" ht="16.5" customHeight="1">
+    <row r="14" spans="1:16" ht="16.5" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -2483,19 +2683,19 @@
         <v>33</v>
       </c>
       <c r="C14" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" ht="16.5" customHeight="1">
+    <row r="15" spans="1:16" ht="16.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2503,233 +2703,233 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="C16" s="5">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6">
-        <v>11.0</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
+    <row r="18" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1"/>
-    <row r="21" ht="16.5" customHeight="1"/>
-    <row r="22" ht="16.5" customHeight="1">
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c r="B24" s="8"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1"/>
-    <row r="31" ht="16.5" customHeight="1"/>
-    <row r="32" ht="16.5" customHeight="1">
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1"/>
-    <row r="34" ht="16.5" customHeight="1"/>
-    <row r="35" ht="16.5" customHeight="1"/>
-    <row r="36" ht="16.5" customHeight="1"/>
-    <row r="37" ht="16.5" customHeight="1"/>
-    <row r="38" ht="16.5" customHeight="1"/>
-    <row r="39" ht="16.5" customHeight="1"/>
-    <row r="40" ht="16.5" customHeight="1"/>
-    <row r="41" ht="16.5" customHeight="1"/>
-    <row r="42" ht="16.5" customHeight="1"/>
-    <row r="43" ht="16.5" customHeight="1"/>
-    <row r="44" ht="16.5" customHeight="1"/>
-    <row r="45" ht="16.5" customHeight="1"/>
-    <row r="46" ht="16.5" customHeight="1"/>
-    <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="8"/>
-      <c r="X47" s="8"/>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="8"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c r="B49" s="8"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c r="B50" s="8"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c r="B51" s="8"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c r="B52" s="8"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c r="B53" s="8"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c r="B54" s="8"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c r="B55" s="8"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c r="B56" s="8"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c r="B57" s="8"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c r="B58" s="8"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c r="B59" s="8"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c r="B60" s="8"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c r="B61" s="8"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c r="B62" s="8"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c r="B63" s="8"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1"/>
-    <row r="65" ht="16.5" customHeight="1"/>
-    <row r="66" ht="16.5" customHeight="1">
-      <c r="B66" s="8"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c r="B67" s="8"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c r="B68" s="8"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1"/>
-    <row r="70" ht="16.5" customHeight="1"/>
-    <row r="71" ht="16.5" customHeight="1">
-      <c r="B71" s="8"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c r="B72" s="8"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c r="B73" s="8"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1"/>
-    <row r="75" ht="16.5" customHeight="1"/>
-    <row r="76" ht="16.5" customHeight="1"/>
-    <row r="77" ht="16.5" customHeight="1"/>
-    <row r="78" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="80" ht="16.5" customHeight="1"/>
+      <c r="C19" s="5">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="22" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="31" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="34" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="35" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="36" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="37" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="38" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="39" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="40" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="41" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="42" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="43" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="44" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="45" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="46" spans="1:26" ht="16.5" customHeight="1"/>
+    <row r="47" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+    </row>
+    <row r="48" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+    </row>
+    <row r="49" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B56" s="7"/>
+    </row>
+    <row r="57" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B59" s="7"/>
+    </row>
+    <row r="60" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="65" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="66" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B66" s="7"/>
+    </row>
+    <row r="67" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B68" s="7"/>
+    </row>
+    <row r="69" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="70" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="71" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="75" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="76" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="77" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="78" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="79" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="80" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="81" ht="16.5" customHeight="1"/>
     <row r="82" ht="16.5" customHeight="1"/>
     <row r="83" ht="16.5" customHeight="1"/>
@@ -3651,39 +3851,38 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.0"/>
-    <col customWidth="1" min="2" max="2" width="70.43"/>
-    <col customWidth="1" min="3" max="3" width="16.14"/>
-    <col customWidth="1" min="4" max="4" width="18.14"/>
-    <col customWidth="1" min="5" max="5" width="15.43"/>
-    <col customWidth="1" min="6" max="6" width="51.43"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="70.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3703,7 +3902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3723,7 +3922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3743,442 +3942,442 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="C5" s="8">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
+      <c r="C7" s="8">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
+      <c r="C9" s="8">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
+      <c r="C11" s="8">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="9" t="s">
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
+      <c r="C14" s="8">
+        <v>6</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
+      <c r="C16" s="8">
+        <v>6</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
+    <row r="17" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="C17" s="8">
+        <v>6</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>4</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="9" t="s">
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <v>6</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10" t="s">
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>4</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
+      <c r="C22" s="8">
+        <v>2</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A23" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="8">
+        <v>2</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="8">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <v>6</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8">
+        <v>11</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="C31" s="8">
+        <v>7</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9" t="s">
+      <c r="C32" s="8">
+        <v>11</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8">
+        <v>5</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="9">
-        <v>7.0</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1"/>
-    <row r="36" ht="16.5" customHeight="1"/>
-    <row r="37" ht="16.5" customHeight="1"/>
-    <row r="38" ht="16.5" customHeight="1"/>
-    <row r="39" ht="16.5" customHeight="1"/>
-    <row r="40" ht="16.5" customHeight="1"/>
-    <row r="41" ht="16.5" customHeight="1"/>
-    <row r="42" ht="16.5" customHeight="1"/>
-    <row r="43" ht="16.5" customHeight="1"/>
-    <row r="44" ht="16.5" customHeight="1"/>
-    <row r="45" ht="16.5" customHeight="1"/>
-    <row r="46" ht="16.5" customHeight="1"/>
-    <row r="47" ht="16.5" customHeight="1"/>
-    <row r="48" ht="16.5" customHeight="1"/>
+      <c r="C34" s="8">
+        <v>4</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="36" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="37" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="38" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="39" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="40" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="41" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="42" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="43" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="44" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="45" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="46" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="47" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="48" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="49" ht="16.5" customHeight="1"/>
     <row r="50" ht="16.5" customHeight="1"/>
     <row r="51" ht="16.5" customHeight="1"/>
@@ -5132,38 +5331,35 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.43"/>
-    <col customWidth="1" min="2" max="2" width="59.14"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" ht="16.5" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5183,7 +5379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5203,7 +5399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -5223,80 +5419,80 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="C9" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -6282,43 +6478,40 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.43"/>
-    <col customWidth="1" min="2" max="2" width="29.14"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6338,7 +6531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -6358,7 +6551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -6378,55 +6571,55 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -6434,13 +6627,13 @@
         <v>32</v>
       </c>
       <c r="C8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -6448,36 +6641,36 @@
         <v>32</v>
       </c>
       <c r="C9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
       <c r="C11" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -7463,43 +7656,40 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.43"/>
-    <col customWidth="1" min="2" max="2" width="24.43"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7519,7 +7709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -7539,7 +7729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -7559,51 +7749,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="C7" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1"/>
-    <row r="9" ht="16.5" customHeight="1"/>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -8589,10 +8779,9 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Beach.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Beach.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B9BB5D-75F2-44FF-8E83-815B3018BBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B479B795-7334-4BEE-B719-AA3BAA92B74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,6 +42,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -70,6 +71,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -95,6 +97,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -115,6 +118,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -164,6 +168,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -192,6 +197,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -217,6 +223,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -237,6 +244,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -286,6 +294,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -314,6 +323,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -339,6 +349,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -359,6 +370,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -408,6 +420,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -436,6 +449,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -461,6 +475,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -481,6 +496,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -530,6 +546,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -558,6 +575,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -583,6 +601,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -603,6 +622,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -652,6 +672,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -680,6 +701,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -705,6 +727,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -725,6 +748,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -762,7 +786,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="85">
   <si>
     <t>파일명</t>
   </si>
@@ -1038,6 +1062,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3863,7 +3888,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4344,7 +4369,9 @@
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1">
       <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="B33" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="C33" s="8">
         <v>5</v>
       </c>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Beach.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Beach.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B479B795-7334-4BEE-B719-AA3BAA92B74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F6EC9D-502B-46C9-A51B-A65457131120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3225" yWindow="2805" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -786,7 +786,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="88">
   <si>
     <t>파일명</t>
   </si>
@@ -943,9 +943,6 @@
     <t>(컷 씬)&gt; (컷 씬 전환): 카메라 시점, 심하게 흔들리고 흐릿하게 새가 날아가는 것이 보인다.</t>
   </si>
   <si>
-    <t>Hold, 1.5, name=Stage 1/3 Beach/#2 카메라 진동</t>
-  </si>
-  <si>
     <t>···안돼! 카메라가!</t>
   </si>
   <si>
@@ -992,9 +989,6 @@
   </si>
   <si>
     <t>(스테이지 필드) : 사진사가 해변으로 이동한다.</t>
-  </si>
-  <si>
-    <t>FadeOut</t>
   </si>
   <si>
     <t>BeachGame</t>
@@ -1046,12 +1040,30 @@
     <t>Tendency-극단</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>path=Sfx/Play/Stage 1/2 Camping/강아지 짖는 소리/Cartoon Game Dog Bark</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Stage 1/3 Beach/#2 카메라 진동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>path=Sfx/Play/Stage 1/2 Camping/사진기 설치/Mountain Audio - TV Remote Batteries Changing - Sound (1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>path=Sfx/UI/Dialogue/시스템 획득/Positive click button 1</t>
+  </si>
+  <si>
+    <t>path=Sfx/Play/Stage 1/2 Camping/사진기 회수/Mountain Audio - TV Remote Batteries Changing - Sound (2)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1086,8 +1098,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1112,8 +1131,14 @@
         <bgColor rgb="FFE2EFD9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1136,11 +1161,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1172,6 +1212,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3885,10 +3928,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3982,111 +4025,109 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="8">
         <v>4</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="8">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>44</v>
+      <c r="A8" s="10"/>
+      <c r="B8" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C8" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" s="8"/>
+      <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="B9" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="C10" s="8">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
@@ -4097,24 +4138,22 @@
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="B14" s="9"/>
       <c r="C14" s="8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" s="8">
         <v>1</v>
@@ -4126,7 +4165,7 @@
     <row r="16" spans="1:6" ht="16.5" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="8">
         <v>6</v>
@@ -4134,163 +4173,163 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A17" s="8"/>
+      <c r="A17" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="B17" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C17" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8">
-        <v>6</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C20" s="8">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8">
         <v>6</v>
       </c>
+      <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
       </c>
       <c r="D21" s="8">
+        <v>6</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
         <v>4</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="8">
-        <v>2</v>
-      </c>
-      <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C23" s="8">
         <v>1</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="8">
+        <v>6</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A24" s="8"/>
+      <c r="A24" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="B24" s="9" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>4</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="8">
         <v>2</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="8">
-        <v>1</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="8">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C27" s="8">
         <v>1</v>
@@ -4300,101 +4339,147 @@
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C28" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="8">
+        <v>12</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="8">
         <v>1</v>
-      </c>
-      <c r="D29" s="8">
-        <v>6</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8">
-        <v>11</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1">
       <c r="A31" s="8"/>
-      <c r="B31" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="B31" s="9"/>
       <c r="C31" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8" t="s">
-        <v>68</v>
+      <c r="A32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C32" s="8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A33" s="8"/>
+      <c r="A33" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="B33" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C33" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9" t="s">
-        <v>69</v>
+      <c r="A34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C34" s="8">
-        <v>4</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="8">
+        <v>6</v>
+      </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="36" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="37" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="38" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8">
+        <v>11</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="8">
+        <v>7</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="8">
+        <v>5</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="8">
+        <v>4</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="40" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="41" spans="1:6" ht="16.5" customHeight="1"/>
@@ -5357,6 +5442,10 @@
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
+    <row r="1003" ht="16.5" customHeight="1"/>
+    <row r="1004" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5383,7 +5472,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -5451,7 +5540,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -5468,7 +5557,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -5485,7 +5574,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -5499,7 +5588,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -6530,7 +6619,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -6603,7 +6692,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -6620,7 +6709,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -6637,7 +6726,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -6679,7 +6768,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -7708,7 +7797,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -7781,7 +7870,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -7798,7 +7887,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
